--- a/biology/Botanique/Hymenophyllum_polyanthos/Hymenophyllum_polyanthos.xlsx
+++ b/biology/Botanique/Hymenophyllum_polyanthos/Hymenophyllum_polyanthos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum polyanthos est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme ;
@@ -521,7 +535,7 @@
 plusieurs segments d'une division primaire portent un sore, ce qui a servi à la formation de l'épithète spécifique (mais plusieurs espèces d'Hyménophyllacées ont des fructifications plus nombreuses) ;
 l'indusie, englobant complètement les sporanges, a deux lèvres.
 Plusieurs variétés botaniques sont reconnues :
-Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug (1897) - Malaisie - Synonyme : Hymenophyllum blumeanum Spreng[1].
+Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug (1897) - Malaisie - Synonyme : Hymenophyllum blumeanum Spreng.
 Hymenophyllum polyanthos var. clavatum (Sw.) Duss (1903) - Caraïbe - Synonymes : Hymenophyllum clavatum (Sw.) Sw., Trichomanes clavatum Sw.
 Hymenophyllum polyanthos var. contiguum Croxall (1975) - Mauvaise orthographe de l'éphithète spécifique : Polyanthon au lieu de Polyanthos
 Hymenophyllum polyanthos var. mossambicense Schelpe (1955) - Afrique du Sud - Synonyme : Hymenophyllum mossambicense (Schelpe) R.R.Schippers
@@ -530,11 +544,11 @@
 Hymenophyllum polyanthos var. sanguinolentum Jenman (1898)
 Hymenophyllum polyanthos var. sturmii (Bosch) Angely (1963) - Amérique centrale - Synonyme : Hymenophyllum sturmii Bosch
 Mais quelques variétés restent classées dans d'autres espèces :
-Hymenophyllum polyanthos var. andinum Krug (1897) - Équateur - Voir Hymenophyllum andinum Bosch[2]
+Hymenophyllum polyanthos var. andinum Krug (1897) - Équateur - Voir Hymenophyllum andinum Bosch
 Hymenophyllum polyanthos var. kuhnii (C.Chr.) Schelpe (1966) - Madagascar, Afrique australe - Voir Hymenophyllum kuhnii C.Chr.
 Hymenophyllum polyanthos var. mildbraedii (Brause ex Brause &amp; Hieron.) Schelpe (1976) - Voir Hymenophyllum mildbraedii (Brause ex Brause &amp; Hieron.) Alston in Exell - synonyme : Trichomanes mildbraedii Brause ex Brause &amp; Hieron.
 Hymenophyllum polyanthos var. minor Bedd. (1863) - Népal - Voir Hymenophyllum tenellum D.Don
-Le nombre de base de chromosomes de cette espèce est de 28[3].
+Le nombre de base de chromosomes de cette espèce est de 28.
 </t>
         </is>
       </c>
@@ -563,7 +577,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte, est présente dans l'ensemble des zones tropicales et subtropicales, dont la Guyane et la Réunion.
 </t>
@@ -594,7 +610,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hymenophyllum polyanthos appartient au sous-genre Mecodium, dont elle est l'espèce type.
 La très large répartition de cette espèce a entraîné une synonymie importante, cette espèce ayant été « redécouverte » plusieurs fois  :
@@ -608,7 +626,7 @@
 Trichomanes polyanthos Sw..
 Elle souffre aussi de plusieurs homonymes :
 Hymenophyllum polyanthos Fée (1866) - voir Hymenophyllum subdeltoideum Christ
-Hymenophyllum polyanthos Hook. (1835) - Îles du Pacifique, îles Norfolk et Lord howe - Voir Callistopteris polyantha (Hook.) Copel. - synonyme : Trichomanes polyanthos (Hook.) Hook.[4]
+Hymenophyllum polyanthos Hook. (1835) - Îles du Pacifique, îles Norfolk et Lord howe - Voir Callistopteris polyantha (Hook.) Copel. - synonyme : Trichomanes polyanthos (Hook.) Hook.
 Hymenophyllum polyanthos Matsum. (1904) - Voir Hymenophyllum polyanthos var. blumeanum (Spreng.) Krug</t>
         </is>
       </c>
